--- a/output/GNER/LLaMA-3B-KGC1/eval-performances-lv1.xlsx
+++ b/output/GNER/LLaMA-3B-KGC1/eval-performances-lv1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,6 +1573,2182 @@
         <v>36.16796875</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>1.0295</v>
+      </c>
+      <c r="B36" t="n">
+        <v>57.3249582584963</v>
+      </c>
+      <c r="C36" t="n">
+        <v>61.80030256685871</v>
+      </c>
+      <c r="D36" t="n">
+        <v>54.03111739247699</v>
+      </c>
+      <c r="E36" t="n">
+        <v>63.34154350896137</v>
+      </c>
+      <c r="F36" t="n">
+        <v>52.40926157197011</v>
+      </c>
+      <c r="G36" t="n">
+        <v>62.52949503982968</v>
+      </c>
+      <c r="H36" t="n">
+        <v>63.5473113748038</v>
+      </c>
+      <c r="I36" t="n">
+        <v>43.61567635457342</v>
+      </c>
+      <c r="J36" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>1.0598</v>
+      </c>
+      <c r="B37" t="n">
+        <v>63.5044933057764</v>
+      </c>
+      <c r="C37" t="n">
+        <v>64.18188594356056</v>
+      </c>
+      <c r="D37" t="n">
+        <v>65.76728498658586</v>
+      </c>
+      <c r="E37" t="n">
+        <v>74.60284711693679</v>
+      </c>
+      <c r="F37" t="n">
+        <v>67.21028696379281</v>
+      </c>
+      <c r="G37" t="n">
+        <v>71.62637877931957</v>
+      </c>
+      <c r="H37" t="n">
+        <v>62.40119632066892</v>
+      </c>
+      <c r="I37" t="n">
+        <v>38.74157302957028</v>
+      </c>
+      <c r="J37" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>1.0901</v>
+      </c>
+      <c r="B38" t="n">
+        <v>64.84617495557167</v>
+      </c>
+      <c r="C38" t="n">
+        <v>64.74820143384687</v>
+      </c>
+      <c r="D38" t="n">
+        <v>68.10538116093483</v>
+      </c>
+      <c r="E38" t="n">
+        <v>78.4281282266509</v>
+      </c>
+      <c r="F38" t="n">
+        <v>70.22568092885008</v>
+      </c>
+      <c r="G38" t="n">
+        <v>72.82196969196666</v>
+      </c>
+      <c r="H38" t="n">
+        <v>63.44647519095174</v>
+      </c>
+      <c r="I38" t="n">
+        <v>36.14738805580063</v>
+      </c>
+      <c r="J38" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>1.1204</v>
+      </c>
+      <c r="B39" t="n">
+        <v>61.87868812096198</v>
+      </c>
+      <c r="C39" t="n">
+        <v>62.23723723223369</v>
+      </c>
+      <c r="D39" t="n">
+        <v>63.06001690119025</v>
+      </c>
+      <c r="E39" t="n">
+        <v>69.7069748196036</v>
+      </c>
+      <c r="F39" t="n">
+        <v>61.34800549706224</v>
+      </c>
+      <c r="G39" t="n">
+        <v>69.18238993210394</v>
+      </c>
+      <c r="H39" t="n">
+        <v>66.90021230931281</v>
+      </c>
+      <c r="I39" t="n">
+        <v>40.71598015522729</v>
+      </c>
+      <c r="J39" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>1.1506</v>
+      </c>
+      <c r="B40" t="n">
+        <v>60.87819328209341</v>
+      </c>
+      <c r="C40" t="n">
+        <v>61.85035016086354</v>
+      </c>
+      <c r="D40" t="n">
+        <v>63.22325712174949</v>
+      </c>
+      <c r="E40" t="n">
+        <v>71.31079966524447</v>
+      </c>
+      <c r="F40" t="n">
+        <v>56.31159079743892</v>
+      </c>
+      <c r="G40" t="n">
+        <v>67.80128794348089</v>
+      </c>
+      <c r="H40" t="n">
+        <v>65.38834428036412</v>
+      </c>
+      <c r="I40" t="n">
+        <v>40.26172300551241</v>
+      </c>
+      <c r="J40" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>1.1809</v>
+      </c>
+      <c r="B41" t="n">
+        <v>60.14784263098952</v>
+      </c>
+      <c r="C41" t="n">
+        <v>59.97811017376341</v>
+      </c>
+      <c r="D41" t="n">
+        <v>58.48375450764591</v>
+      </c>
+      <c r="E41" t="n">
+        <v>71.22390502979601</v>
+      </c>
+      <c r="F41" t="n">
+        <v>58.5470085420078</v>
+      </c>
+      <c r="G41" t="n">
+        <v>66.68183886618945</v>
+      </c>
+      <c r="H41" t="n">
+        <v>65.79913946406072</v>
+      </c>
+      <c r="I41" t="n">
+        <v>40.32114183346327</v>
+      </c>
+      <c r="J41" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>1.2112</v>
+      </c>
+      <c r="B42" t="n">
+        <v>61.64429997549279</v>
+      </c>
+      <c r="C42" t="n">
+        <v>63.54166666166211</v>
+      </c>
+      <c r="D42" t="n">
+        <v>60.23632865672555</v>
+      </c>
+      <c r="E42" t="n">
+        <v>72.69043759629632</v>
+      </c>
+      <c r="F42" t="n">
+        <v>61.05165192612888</v>
+      </c>
+      <c r="G42" t="n">
+        <v>68.40420667081175</v>
+      </c>
+      <c r="H42" t="n">
+        <v>63.86196612567121</v>
+      </c>
+      <c r="I42" t="n">
+        <v>41.72384219115371</v>
+      </c>
+      <c r="J42" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>1.2415</v>
+      </c>
+      <c r="B43" t="n">
+        <v>59.3366268120952</v>
+      </c>
+      <c r="C43" t="n">
+        <v>62.76991808881534</v>
+      </c>
+      <c r="D43" t="n">
+        <v>55.20745130746826</v>
+      </c>
+      <c r="E43" t="n">
+        <v>65.12109293642759</v>
+      </c>
+      <c r="F43" t="n">
+        <v>60.58221872041247</v>
+      </c>
+      <c r="G43" t="n">
+        <v>66.13358419066955</v>
+      </c>
+      <c r="H43" t="n">
+        <v>64.58707834973991</v>
+      </c>
+      <c r="I43" t="n">
+        <v>40.95504409113324</v>
+      </c>
+      <c r="J43" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>1.2718</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60.41039380806741</v>
+      </c>
+      <c r="C44" t="n">
+        <v>59.64653902297802</v>
+      </c>
+      <c r="D44" t="n">
+        <v>56.31768952569657</v>
+      </c>
+      <c r="E44" t="n">
+        <v>70.11611325635795</v>
+      </c>
+      <c r="F44" t="n">
+        <v>67.68330252118413</v>
+      </c>
+      <c r="G44" t="n">
+        <v>62.28584838739323</v>
+      </c>
+      <c r="H44" t="n">
+        <v>64.23820081864653</v>
+      </c>
+      <c r="I44" t="n">
+        <v>42.58506312421545</v>
+      </c>
+      <c r="J44" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="B45" t="n">
+        <v>58.32589178973204</v>
+      </c>
+      <c r="C45" t="n">
+        <v>59.67188095646555</v>
+      </c>
+      <c r="D45" t="n">
+        <v>57.2948753800618</v>
+      </c>
+      <c r="E45" t="n">
+        <v>67.19836400318256</v>
+      </c>
+      <c r="F45" t="n">
+        <v>60.26757933538405</v>
+      </c>
+      <c r="G45" t="n">
+        <v>64.72235183820759</v>
+      </c>
+      <c r="H45" t="n">
+        <v>60.80610021299674</v>
+      </c>
+      <c r="I45" t="n">
+        <v>38.32009080182597</v>
+      </c>
+      <c r="J45" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>1.3323</v>
+      </c>
+      <c r="B46" t="n">
+        <v>58.10482995141515</v>
+      </c>
+      <c r="C46" t="n">
+        <v>59.34561864862615</v>
+      </c>
+      <c r="D46" t="n">
+        <v>54.8279689184287</v>
+      </c>
+      <c r="E46" t="n">
+        <v>66.14077669402874</v>
+      </c>
+      <c r="F46" t="n">
+        <v>58.43859381633587</v>
+      </c>
+      <c r="G46" t="n">
+        <v>64.07407406907201</v>
+      </c>
+      <c r="H46" t="n">
+        <v>63.04044629914925</v>
+      </c>
+      <c r="I46" t="n">
+        <v>40.86633121426534</v>
+      </c>
+      <c r="J46" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>1.3626</v>
+      </c>
+      <c r="B47" t="n">
+        <v>60.17824862608679</v>
+      </c>
+      <c r="C47" t="n">
+        <v>62.38601823208106</v>
+      </c>
+      <c r="D47" t="n">
+        <v>57.72495755020124</v>
+      </c>
+      <c r="E47" t="n">
+        <v>69.37359722005789</v>
+      </c>
+      <c r="F47" t="n">
+        <v>63.26658322403485</v>
+      </c>
+      <c r="G47" t="n">
+        <v>66.46168400635007</v>
+      </c>
+      <c r="H47" t="n">
+        <v>61.31291027960413</v>
+      </c>
+      <c r="I47" t="n">
+        <v>40.72198987027832</v>
+      </c>
+      <c r="J47" t="n">
+        <v>36.16796875</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>1.3929</v>
+      </c>
+      <c r="B48" t="n">
+        <v>61.51410738581347</v>
+      </c>
+      <c r="C48" t="n">
+        <v>62.30969178853426</v>
+      </c>
+      <c r="D48" t="n">
+        <v>62.45497367192792</v>
+      </c>
+      <c r="E48" t="n">
+        <v>69.07384740422245</v>
+      </c>
+      <c r="F48" t="n">
+        <v>65.91817901683764</v>
+      </c>
+      <c r="G48" t="n">
+        <v>69.33149551532981</v>
+      </c>
+      <c r="H48" t="n">
+        <v>59.65210012236706</v>
+      </c>
+      <c r="I48" t="n">
+        <v>41.8584641814752</v>
+      </c>
+      <c r="J48" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>1.4232</v>
+      </c>
+      <c r="B49" t="n">
+        <v>57.67012295017959</v>
+      </c>
+      <c r="C49" t="n">
+        <v>58.05284110972845</v>
+      </c>
+      <c r="D49" t="n">
+        <v>57.23775255520811</v>
+      </c>
+      <c r="E49" t="n">
+        <v>66.44937868719943</v>
+      </c>
+      <c r="F49" t="n">
+        <v>56.28798503473664</v>
+      </c>
+      <c r="G49" t="n">
+        <v>63.95187412734413</v>
+      </c>
+      <c r="H49" t="n">
+        <v>60.0806891239092</v>
+      </c>
+      <c r="I49" t="n">
+        <v>41.63034001313117</v>
+      </c>
+      <c r="J49" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>1.4534</v>
+      </c>
+      <c r="B50" t="n">
+        <v>62.49870624433404</v>
+      </c>
+      <c r="C50" t="n">
+        <v>60.92666909386549</v>
+      </c>
+      <c r="D50" t="n">
+        <v>62.9182665885315</v>
+      </c>
+      <c r="E50" t="n">
+        <v>73.05365066058974</v>
+      </c>
+      <c r="F50" t="n">
+        <v>63.98176291293291</v>
+      </c>
+      <c r="G50" t="n">
+        <v>66.78958284819048</v>
+      </c>
+      <c r="H50" t="n">
+        <v>63.75818011347523</v>
+      </c>
+      <c r="I50" t="n">
+        <v>46.06283149275281</v>
+      </c>
+      <c r="J50" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>1.4837</v>
+      </c>
+      <c r="B51" t="n">
+        <v>64.18439908981928</v>
+      </c>
+      <c r="C51" t="n">
+        <v>65.41159098798153</v>
+      </c>
+      <c r="D51" t="n">
+        <v>63.52076857371609</v>
+      </c>
+      <c r="E51" t="n">
+        <v>74.1895773442033</v>
+      </c>
+      <c r="F51" t="n">
+        <v>72.51259445343739</v>
+      </c>
+      <c r="G51" t="n">
+        <v>67.0321811630553</v>
+      </c>
+      <c r="H51" t="n">
+        <v>62.91631084052768</v>
+      </c>
+      <c r="I51" t="n">
+        <v>43.70777026581371</v>
+      </c>
+      <c r="J51" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>1.514</v>
+      </c>
+      <c r="B52" t="n">
+        <v>61.40562716658285</v>
+      </c>
+      <c r="C52" t="n">
+        <v>59.04690989819761</v>
+      </c>
+      <c r="D52" t="n">
+        <v>63.08724831716203</v>
+      </c>
+      <c r="E52" t="n">
+        <v>69.31303989627983</v>
+      </c>
+      <c r="F52" t="n">
+        <v>67.90299571540007</v>
+      </c>
+      <c r="G52" t="n">
+        <v>65.92993180783493</v>
+      </c>
+      <c r="H52" t="n">
+        <v>61.38964010323554</v>
+      </c>
+      <c r="I52" t="n">
+        <v>43.16962442797001</v>
+      </c>
+      <c r="J52" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>1.5443</v>
+      </c>
+      <c r="B53" t="n">
+        <v>61.41043517560109</v>
+      </c>
+      <c r="C53" t="n">
+        <v>60.88631984086154</v>
+      </c>
+      <c r="D53" t="n">
+        <v>61.43459915113654</v>
+      </c>
+      <c r="E53" t="n">
+        <v>68.99082568307495</v>
+      </c>
+      <c r="F53" t="n">
+        <v>66.9554455395524</v>
+      </c>
+      <c r="G53" t="n">
+        <v>67.76504297494101</v>
+      </c>
+      <c r="H53" t="n">
+        <v>62.50802481855411</v>
+      </c>
+      <c r="I53" t="n">
+        <v>41.33278822108707</v>
+      </c>
+      <c r="J53" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>1.5746</v>
+      </c>
+      <c r="B54" t="n">
+        <v>60.25063813329788</v>
+      </c>
+      <c r="C54" t="n">
+        <v>59.97140814367899</v>
+      </c>
+      <c r="D54" t="n">
+        <v>63.04881373920727</v>
+      </c>
+      <c r="E54" t="n">
+        <v>68.45936109487812</v>
+      </c>
+      <c r="F54" t="n">
+        <v>64.29220975553379</v>
+      </c>
+      <c r="G54" t="n">
+        <v>63.86127167129868</v>
+      </c>
+      <c r="H54" t="n">
+        <v>60.50870146760522</v>
+      </c>
+      <c r="I54" t="n">
+        <v>41.61270106088316</v>
+      </c>
+      <c r="J54" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>1.6048</v>
+      </c>
+      <c r="B55" t="n">
+        <v>63.12005836106061</v>
+      </c>
+      <c r="C55" t="n">
+        <v>63.74269005347555</v>
+      </c>
+      <c r="D55" t="n">
+        <v>66.08122941322611</v>
+      </c>
+      <c r="E55" t="n">
+        <v>72.62479870675367</v>
+      </c>
+      <c r="F55" t="n">
+        <v>68.71620577284435</v>
+      </c>
+      <c r="G55" t="n">
+        <v>67.46876445589558</v>
+      </c>
+      <c r="H55" t="n">
+        <v>62.43881676461685</v>
+      </c>
+      <c r="I55" t="n">
+        <v>40.76790336061219</v>
+      </c>
+      <c r="J55" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>1.6351</v>
+      </c>
+      <c r="B56" t="n">
+        <v>59.43002988758425</v>
+      </c>
+      <c r="C56" t="n">
+        <v>56.88273852376614</v>
+      </c>
+      <c r="D56" t="n">
+        <v>58.23691459555747</v>
+      </c>
+      <c r="E56" t="n">
+        <v>70.28571428071611</v>
+      </c>
+      <c r="F56" t="n">
+        <v>63.45083487440436</v>
+      </c>
+      <c r="G56" t="n">
+        <v>63.00738006879929</v>
+      </c>
+      <c r="H56" t="n">
+        <v>61.11973506697773</v>
+      </c>
+      <c r="I56" t="n">
+        <v>43.02689180286867</v>
+      </c>
+      <c r="J56" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>1.6654</v>
+      </c>
+      <c r="B57" t="n">
+        <v>61.71873596880374</v>
+      </c>
+      <c r="C57" t="n">
+        <v>61.66730109892043</v>
+      </c>
+      <c r="D57" t="n">
+        <v>62.4652970522006</v>
+      </c>
+      <c r="E57" t="n">
+        <v>75.21507578361405</v>
+      </c>
+      <c r="F57" t="n">
+        <v>65.3409973540162</v>
+      </c>
+      <c r="G57" t="n">
+        <v>64.91879349847788</v>
+      </c>
+      <c r="H57" t="n">
+        <v>60.49165023880724</v>
+      </c>
+      <c r="I57" t="n">
+        <v>41.93203675558977</v>
+      </c>
+      <c r="J57" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>1.6957</v>
+      </c>
+      <c r="B58" t="n">
+        <v>57.71198606394351</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56.92714231285365</v>
+      </c>
+      <c r="D58" t="n">
+        <v>54.64788731896345</v>
+      </c>
+      <c r="E58" t="n">
+        <v>66.5840561701407</v>
+      </c>
+      <c r="F58" t="n">
+        <v>55.57461406017862</v>
+      </c>
+      <c r="G58" t="n">
+        <v>64.92767369668114</v>
+      </c>
+      <c r="H58" t="n">
+        <v>63.32979851046269</v>
+      </c>
+      <c r="I58" t="n">
+        <v>41.99273037832427</v>
+      </c>
+      <c r="J58" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>1.726</v>
+      </c>
+      <c r="B59" t="n">
+        <v>59.44136951533488</v>
+      </c>
+      <c r="C59" t="n">
+        <v>58.85378397736181</v>
+      </c>
+      <c r="D59" t="n">
+        <v>58.24541920655953</v>
+      </c>
+      <c r="E59" t="n">
+        <v>71.11111110611259</v>
+      </c>
+      <c r="F59" t="n">
+        <v>61.95502523593505</v>
+      </c>
+      <c r="G59" t="n">
+        <v>65.72487262121363</v>
+      </c>
+      <c r="H59" t="n">
+        <v>58.60369609360779</v>
+      </c>
+      <c r="I59" t="n">
+        <v>41.59567836655387</v>
+      </c>
+      <c r="J59" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>1.7562</v>
+      </c>
+      <c r="B60" t="n">
+        <v>58.90407530591517</v>
+      </c>
+      <c r="C60" t="n">
+        <v>56.2115175610973</v>
+      </c>
+      <c r="D60" t="n">
+        <v>63.80978711140271</v>
+      </c>
+      <c r="E60" t="n">
+        <v>73.7674984733932</v>
+      </c>
+      <c r="F60" t="n">
+        <v>53.87081996751421</v>
+      </c>
+      <c r="G60" t="n">
+        <v>64.32207310929691</v>
+      </c>
+      <c r="H60" t="n">
+        <v>59.74025973530078</v>
+      </c>
+      <c r="I60" t="n">
+        <v>40.6065711834011</v>
+      </c>
+      <c r="J60" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>1.7865</v>
+      </c>
+      <c r="B61" t="n">
+        <v>59.39161842699697</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59.06735750794899</v>
+      </c>
+      <c r="D61" t="n">
+        <v>60.48615036246117</v>
+      </c>
+      <c r="E61" t="n">
+        <v>72.59228706450446</v>
+      </c>
+      <c r="F61" t="n">
+        <v>56.60436136571492</v>
+      </c>
+      <c r="G61" t="n">
+        <v>65.64417177413816</v>
+      </c>
+      <c r="H61" t="n">
+        <v>59.43009429598645</v>
+      </c>
+      <c r="I61" t="n">
+        <v>41.91690661822463</v>
+      </c>
+      <c r="J61" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>1.8168</v>
+      </c>
+      <c r="B62" t="n">
+        <v>58.195838650763</v>
+      </c>
+      <c r="C62" t="n">
+        <v>58.48989719457908</v>
+      </c>
+      <c r="D62" t="n">
+        <v>62.54784034492107</v>
+      </c>
+      <c r="E62" t="n">
+        <v>65.35052376615117</v>
+      </c>
+      <c r="F62" t="n">
+        <v>56.76680086213977</v>
+      </c>
+      <c r="G62" t="n">
+        <v>62.73790414542392</v>
+      </c>
+      <c r="H62" t="n">
+        <v>59.48249618985862</v>
+      </c>
+      <c r="I62" t="n">
+        <v>41.99540805226738</v>
+      </c>
+      <c r="J62" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>1.8471</v>
+      </c>
+      <c r="B63" t="n">
+        <v>57.09766131608911</v>
+      </c>
+      <c r="C63" t="n">
+        <v>57.04334364825713</v>
+      </c>
+      <c r="D63" t="n">
+        <v>58.81365416401329</v>
+      </c>
+      <c r="E63" t="n">
+        <v>67.00756800482064</v>
+      </c>
+      <c r="F63" t="n">
+        <v>56.76720803830837</v>
+      </c>
+      <c r="G63" t="n">
+        <v>59.97197570728129</v>
+      </c>
+      <c r="H63" t="n">
+        <v>61.20840629986964</v>
+      </c>
+      <c r="I63" t="n">
+        <v>38.87147335007343</v>
+      </c>
+      <c r="J63" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>1.8774</v>
+      </c>
+      <c r="B64" t="n">
+        <v>59.37343696018766</v>
+      </c>
+      <c r="C64" t="n">
+        <v>58.73293664184256</v>
+      </c>
+      <c r="D64" t="n">
+        <v>62.28965516742071</v>
+      </c>
+      <c r="E64" t="n">
+        <v>70.68338050450198</v>
+      </c>
+      <c r="F64" t="n">
+        <v>62.81769688862929</v>
+      </c>
+      <c r="G64" t="n">
+        <v>63.90909090409293</v>
+      </c>
+      <c r="H64" t="n">
+        <v>56.48779523169761</v>
+      </c>
+      <c r="I64" t="n">
+        <v>40.69350338312863</v>
+      </c>
+      <c r="J64" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>1.9076</v>
+      </c>
+      <c r="B65" t="n">
+        <v>56.21447361029751</v>
+      </c>
+      <c r="C65" t="n">
+        <v>59.48210205135936</v>
+      </c>
+      <c r="D65" t="n">
+        <v>57.24781011087386</v>
+      </c>
+      <c r="E65" t="n">
+        <v>67.3536685852776</v>
+      </c>
+      <c r="F65" t="n">
+        <v>57.90800251547857</v>
+      </c>
+      <c r="G65" t="n">
+        <v>61.79589912297268</v>
+      </c>
+      <c r="H65" t="n">
+        <v>58.11328569454728</v>
+      </c>
+      <c r="I65" t="n">
+        <v>31.60054719157317</v>
+      </c>
+      <c r="J65" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>1.9379</v>
+      </c>
+      <c r="B66" t="n">
+        <v>57.30185608458807</v>
+      </c>
+      <c r="C66" t="n">
+        <v>57.01100460984247</v>
+      </c>
+      <c r="D66" t="n">
+        <v>62.81588447154459</v>
+      </c>
+      <c r="E66" t="n">
+        <v>70.10980072700563</v>
+      </c>
+      <c r="F66" t="n">
+        <v>58.79312964996266</v>
+      </c>
+      <c r="G66" t="n">
+        <v>64.64228202858531</v>
+      </c>
+      <c r="H66" t="n">
+        <v>57.40587504677039</v>
+      </c>
+      <c r="I66" t="n">
+        <v>30.33501605840543</v>
+      </c>
+      <c r="J66" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>1.9682</v>
+      </c>
+      <c r="B67" t="n">
+        <v>58.49338119316112</v>
+      </c>
+      <c r="C67" t="n">
+        <v>58.05964514411064</v>
+      </c>
+      <c r="D67" t="n">
+        <v>62.48248808691817</v>
+      </c>
+      <c r="E67" t="n">
+        <v>73.2893652052279</v>
+      </c>
+      <c r="F67" t="n">
+        <v>57.62870514320441</v>
+      </c>
+      <c r="G67" t="n">
+        <v>67.3753838834922</v>
+      </c>
+      <c r="H67" t="n">
+        <v>56.99096224921054</v>
+      </c>
+      <c r="I67" t="n">
+        <v>33.627118639964</v>
+      </c>
+      <c r="J67" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>1.9985</v>
+      </c>
+      <c r="B68" t="n">
+        <v>58.44707563822242</v>
+      </c>
+      <c r="C68" t="n">
+        <v>58.87126521078322</v>
+      </c>
+      <c r="D68" t="n">
+        <v>64.40866184953529</v>
+      </c>
+      <c r="E68" t="n">
+        <v>71.66123778001732</v>
+      </c>
+      <c r="F68" t="n">
+        <v>62.46515948710088</v>
+      </c>
+      <c r="G68" t="n">
+        <v>64.30581613008141</v>
+      </c>
+      <c r="H68" t="n">
+        <v>54.00921658490435</v>
+      </c>
+      <c r="I68" t="n">
+        <v>33.40817242513444</v>
+      </c>
+      <c r="J68" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B69" t="n">
+        <v>59.03338635656229</v>
+      </c>
+      <c r="C69" t="n">
+        <v>58.99065420060366</v>
+      </c>
+      <c r="D69" t="n">
+        <v>64.69286109074707</v>
+      </c>
+      <c r="E69" t="n">
+        <v>73.218673213676</v>
+      </c>
+      <c r="F69" t="n">
+        <v>63.93798449112206</v>
+      </c>
+      <c r="G69" t="n">
+        <v>65.14339006261199</v>
+      </c>
+      <c r="H69" t="n">
+        <v>53.58498307023151</v>
+      </c>
+      <c r="I69" t="n">
+        <v>33.66515836694376</v>
+      </c>
+      <c r="J69" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>2.0288</v>
+      </c>
+      <c r="B70" t="n">
+        <v>58.35624210545355</v>
+      </c>
+      <c r="C70" t="n">
+        <v>57.55958733047095</v>
+      </c>
+      <c r="D70" t="n">
+        <v>65.1378651328676</v>
+      </c>
+      <c r="E70" t="n">
+        <v>76.34517765997472</v>
+      </c>
+      <c r="F70" t="n">
+        <v>60.96403978076776</v>
+      </c>
+      <c r="G70" t="n">
+        <v>62.99507850448851</v>
+      </c>
+      <c r="H70" t="n">
+        <v>53.60659031047644</v>
+      </c>
+      <c r="I70" t="n">
+        <v>31.88535601912883</v>
+      </c>
+      <c r="J70" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>2.059</v>
+      </c>
+      <c r="B71" t="n">
+        <v>61.41080861843292</v>
+      </c>
+      <c r="C71" t="n">
+        <v>63.7821708267748</v>
+      </c>
+      <c r="D71" t="n">
+        <v>65.45657637032754</v>
+      </c>
+      <c r="E71" t="n">
+        <v>76.19824596685535</v>
+      </c>
+      <c r="F71" t="n">
+        <v>64.26575597140288</v>
+      </c>
+      <c r="G71" t="n">
+        <v>68.78980891219435</v>
+      </c>
+      <c r="H71" t="n">
+        <v>57.2782369097553</v>
+      </c>
+      <c r="I71" t="n">
+        <v>34.10486537172029</v>
+      </c>
+      <c r="J71" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>2.0893</v>
+      </c>
+      <c r="B72" t="n">
+        <v>58.57882545041008</v>
+      </c>
+      <c r="C72" t="n">
+        <v>58.43773028239444</v>
+      </c>
+      <c r="D72" t="n">
+        <v>59.61698584013921</v>
+      </c>
+      <c r="E72" t="n">
+        <v>72.26144845172671</v>
+      </c>
+      <c r="F72" t="n">
+        <v>59.18935643064174</v>
+      </c>
+      <c r="G72" t="n">
+        <v>61.8139534833696</v>
+      </c>
+      <c r="H72" t="n">
+        <v>59.40573341210027</v>
+      </c>
+      <c r="I72" t="n">
+        <v>39.32657025249863</v>
+      </c>
+      <c r="J72" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>2.1196</v>
+      </c>
+      <c r="B73" t="n">
+        <v>58.4076315573755</v>
+      </c>
+      <c r="C73" t="n">
+        <v>58.65384614884182</v>
+      </c>
+      <c r="D73" t="n">
+        <v>63.58059118296578</v>
+      </c>
+      <c r="E73" t="n">
+        <v>72.48514648137876</v>
+      </c>
+      <c r="F73" t="n">
+        <v>58.19839647354045</v>
+      </c>
+      <c r="G73" t="n">
+        <v>61.85026227444519</v>
+      </c>
+      <c r="H73" t="n">
+        <v>57.77498164548454</v>
+      </c>
+      <c r="I73" t="n">
+        <v>36.31019669497185</v>
+      </c>
+      <c r="J73" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>2.1499</v>
+      </c>
+      <c r="B74" t="n">
+        <v>58.48833406106107</v>
+      </c>
+      <c r="C74" t="n">
+        <v>57.30769230269589</v>
+      </c>
+      <c r="D74" t="n">
+        <v>63.34841628461498</v>
+      </c>
+      <c r="E74" t="n">
+        <v>72.38293443829824</v>
+      </c>
+      <c r="F74" t="n">
+        <v>58.91917742207087</v>
+      </c>
+      <c r="G74" t="n">
+        <v>64.24795770763795</v>
+      </c>
+      <c r="H74" t="n">
+        <v>56.58048728097286</v>
+      </c>
+      <c r="I74" t="n">
+        <v>36.63167299113675</v>
+      </c>
+      <c r="J74" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>2.1802</v>
+      </c>
+      <c r="B75" t="n">
+        <v>57.37471580583977</v>
+      </c>
+      <c r="C75" t="n">
+        <v>56.57225852804038</v>
+      </c>
+      <c r="D75" t="n">
+        <v>63.43758648822742</v>
+      </c>
+      <c r="E75" t="n">
+        <v>73.33469972855508</v>
+      </c>
+      <c r="F75" t="n">
+        <v>52.82208588456939</v>
+      </c>
+      <c r="G75" t="n">
+        <v>64.59656550899371</v>
+      </c>
+      <c r="H75" t="n">
+        <v>57.40221897983855</v>
+      </c>
+      <c r="I75" t="n">
+        <v>33.45759552265389</v>
+      </c>
+      <c r="J75" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>2.2104</v>
+      </c>
+      <c r="B76" t="n">
+        <v>56.67268189055798</v>
+      </c>
+      <c r="C76" t="n">
+        <v>56.12009237375689</v>
+      </c>
+      <c r="D76" t="n">
+        <v>58.75933371129077</v>
+      </c>
+      <c r="E76" t="n">
+        <v>73.65792758552169</v>
+      </c>
+      <c r="F76" t="n">
+        <v>54.84116126570986</v>
+      </c>
+      <c r="G76" t="n">
+        <v>64.24096385042223</v>
+      </c>
+      <c r="H76" t="n">
+        <v>54.35931307309198</v>
+      </c>
+      <c r="I76" t="n">
+        <v>34.72998137411247</v>
+      </c>
+      <c r="J76" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>2.2407</v>
+      </c>
+      <c r="B77" t="n">
+        <v>56.70214148334091</v>
+      </c>
+      <c r="C77" t="n">
+        <v>57.03865790892824</v>
+      </c>
+      <c r="D77" t="n">
+        <v>55.05266153786883</v>
+      </c>
+      <c r="E77" t="n">
+        <v>68.97552882122152</v>
+      </c>
+      <c r="F77" t="n">
+        <v>58.86503066984528</v>
+      </c>
+      <c r="G77" t="n">
+        <v>61.40724946194852</v>
+      </c>
+      <c r="H77" t="n">
+        <v>57.8065337244036</v>
+      </c>
+      <c r="I77" t="n">
+        <v>37.76932825917038</v>
+      </c>
+      <c r="J77" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>2.271</v>
+      </c>
+      <c r="B78" t="n">
+        <v>59.84637498757023</v>
+      </c>
+      <c r="C78" t="n">
+        <v>58.18048422096818</v>
+      </c>
+      <c r="D78" t="n">
+        <v>62.81650070626458</v>
+      </c>
+      <c r="E78" t="n">
+        <v>75.38144329397446</v>
+      </c>
+      <c r="F78" t="n">
+        <v>60.03976142641045</v>
+      </c>
+      <c r="G78" t="n">
+        <v>62.09318660234901</v>
+      </c>
+      <c r="H78" t="n">
+        <v>61.17247238251417</v>
+      </c>
+      <c r="I78" t="n">
+        <v>39.24077628051069</v>
+      </c>
+      <c r="J78" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>2.3013</v>
+      </c>
+      <c r="B79" t="n">
+        <v>58.92869518949803</v>
+      </c>
+      <c r="C79" t="n">
+        <v>60.12269938150523</v>
+      </c>
+      <c r="D79" t="n">
+        <v>57.71543085675629</v>
+      </c>
+      <c r="E79" t="n">
+        <v>73.94818652350523</v>
+      </c>
+      <c r="F79" t="n">
+        <v>61.56489145212791</v>
+      </c>
+      <c r="G79" t="n">
+        <v>64.42017196803951</v>
+      </c>
+      <c r="H79" t="n">
+        <v>57.70258236383186</v>
+      </c>
+      <c r="I79" t="n">
+        <v>37.0269037807202</v>
+      </c>
+      <c r="J79" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>2.3316</v>
+      </c>
+      <c r="B80" t="n">
+        <v>60.70459587957797</v>
+      </c>
+      <c r="C80" t="n">
+        <v>61.76688937881137</v>
+      </c>
+      <c r="D80" t="n">
+        <v>64.15303575880195</v>
+      </c>
+      <c r="E80" t="n">
+        <v>71.78637962655357</v>
+      </c>
+      <c r="F80" t="n">
+        <v>58.87182605551375</v>
+      </c>
+      <c r="G80" t="n">
+        <v>66.55836620525511</v>
+      </c>
+      <c r="H80" t="n">
+        <v>59.9361532272627</v>
+      </c>
+      <c r="I80" t="n">
+        <v>41.85952090484732</v>
+      </c>
+      <c r="J80" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>2.3618</v>
+      </c>
+      <c r="B81" t="n">
+        <v>58.61614837527569</v>
+      </c>
+      <c r="C81" t="n">
+        <v>58.89014722036578</v>
+      </c>
+      <c r="D81" t="n">
+        <v>59.58297628751852</v>
+      </c>
+      <c r="E81" t="n">
+        <v>70.39703764157944</v>
+      </c>
+      <c r="F81" t="n">
+        <v>59.20970752455644</v>
+      </c>
+      <c r="G81" t="n">
+        <v>66.31977293728669</v>
+      </c>
+      <c r="H81" t="n">
+        <v>59.5986693802322</v>
+      </c>
+      <c r="I81" t="n">
+        <v>36.31472763539077</v>
+      </c>
+      <c r="J81" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>2.3921</v>
+      </c>
+      <c r="B82" t="n">
+        <v>60.05704376768798</v>
+      </c>
+      <c r="C82" t="n">
+        <v>57.77455599354799</v>
+      </c>
+      <c r="D82" t="n">
+        <v>62.91446084761736</v>
+      </c>
+      <c r="E82" t="n">
+        <v>72.53634894491825</v>
+      </c>
+      <c r="F82" t="n">
+        <v>64.34514637404281</v>
+      </c>
+      <c r="G82" t="n">
+        <v>63.94651912823971</v>
+      </c>
+      <c r="H82" t="n">
+        <v>60.01241207614559</v>
+      </c>
+      <c r="I82" t="n">
+        <v>38.86986300930408</v>
+      </c>
+      <c r="J82" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>2.4224</v>
+      </c>
+      <c r="B83" t="n">
+        <v>58.70008133435789</v>
+      </c>
+      <c r="C83" t="n">
+        <v>59.89345509393416</v>
+      </c>
+      <c r="D83" t="n">
+        <v>60.60085836413086</v>
+      </c>
+      <c r="E83" t="n">
+        <v>70.62005825551765</v>
+      </c>
+      <c r="F83" t="n">
+        <v>62.03374090197842</v>
+      </c>
+      <c r="G83" t="n">
+        <v>64.15274462507003</v>
+      </c>
+      <c r="H83" t="n">
+        <v>58.01318480995761</v>
+      </c>
+      <c r="I83" t="n">
+        <v>35.58652728991648</v>
+      </c>
+      <c r="J83" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>2.4527</v>
+      </c>
+      <c r="B84" t="n">
+        <v>60.97967169345226</v>
+      </c>
+      <c r="C84" t="n">
+        <v>58.67366054201783</v>
+      </c>
+      <c r="D84" t="n">
+        <v>65.45454544955987</v>
+      </c>
+      <c r="E84" t="n">
+        <v>75.63710498990444</v>
+      </c>
+      <c r="F84" t="n">
+        <v>56.99815837437251</v>
+      </c>
+      <c r="G84" t="n">
+        <v>67.15259816099733</v>
+      </c>
+      <c r="H84" t="n">
+        <v>61.11409251415658</v>
+      </c>
+      <c r="I84" t="n">
+        <v>41.82754182315727</v>
+      </c>
+      <c r="J84" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>2.483</v>
+      </c>
+      <c r="B85" t="n">
+        <v>59.97140433824827</v>
+      </c>
+      <c r="C85" t="n">
+        <v>58.88634629553435</v>
+      </c>
+      <c r="D85" t="n">
+        <v>64.02490800521248</v>
+      </c>
+      <c r="E85" t="n">
+        <v>70.53497941887305</v>
+      </c>
+      <c r="F85" t="n">
+        <v>59.15140127885661</v>
+      </c>
+      <c r="G85" t="n">
+        <v>68.67584242499264</v>
+      </c>
+      <c r="H85" t="n">
+        <v>58.29399494519647</v>
+      </c>
+      <c r="I85" t="n">
+        <v>40.23235799907223</v>
+      </c>
+      <c r="J85" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>2.5132</v>
+      </c>
+      <c r="B86" t="n">
+        <v>60.22990503896837</v>
+      </c>
+      <c r="C86" t="n">
+        <v>60.58506542995361</v>
+      </c>
+      <c r="D86" t="n">
+        <v>64.07604137046845</v>
+      </c>
+      <c r="E86" t="n">
+        <v>68.67042370613677</v>
+      </c>
+      <c r="F86" t="n">
+        <v>63.62499999499841</v>
+      </c>
+      <c r="G86" t="n">
+        <v>69.08747936307043</v>
+      </c>
+      <c r="H86" t="n">
+        <v>56.18124386834814</v>
+      </c>
+      <c r="I86" t="n">
+        <v>39.38408153980276</v>
+      </c>
+      <c r="J86" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>2.5435</v>
+      </c>
+      <c r="B87" t="n">
+        <v>57.56656053409402</v>
+      </c>
+      <c r="C87" t="n">
+        <v>57.41626793760969</v>
+      </c>
+      <c r="D87" t="n">
+        <v>63.91279402831032</v>
+      </c>
+      <c r="E87" t="n">
+        <v>71.79054053555949</v>
+      </c>
+      <c r="F87" t="n">
+        <v>56.97185376401491</v>
+      </c>
+      <c r="G87" t="n">
+        <v>68.28439698602415</v>
+      </c>
+      <c r="H87" t="n">
+        <v>54.29444381099034</v>
+      </c>
+      <c r="I87" t="n">
+        <v>30.29562667614932</v>
+      </c>
+      <c r="J87" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>2.5738</v>
+      </c>
+      <c r="B88" t="n">
+        <v>61.61032689441365</v>
+      </c>
+      <c r="C88" t="n">
+        <v>63.61573373176024</v>
+      </c>
+      <c r="D88" t="n">
+        <v>65.82633052722817</v>
+      </c>
+      <c r="E88" t="n">
+        <v>70.17543859149292</v>
+      </c>
+      <c r="F88" t="n">
+        <v>64.60630532191215</v>
+      </c>
+      <c r="G88" t="n">
+        <v>70.17132128107978</v>
+      </c>
+      <c r="H88" t="n">
+        <v>57.23231057740611</v>
+      </c>
+      <c r="I88" t="n">
+        <v>39.64484823001626</v>
+      </c>
+      <c r="J88" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>2.6041</v>
+      </c>
+      <c r="B89" t="n">
+        <v>55.15707008161084</v>
+      </c>
+      <c r="C89" t="n">
+        <v>57.93470007092928</v>
+      </c>
+      <c r="D89" t="n">
+        <v>55.209820149184</v>
+      </c>
+      <c r="E89" t="n">
+        <v>64.10947542523856</v>
+      </c>
+      <c r="F89" t="n">
+        <v>56.76359038690929</v>
+      </c>
+      <c r="G89" t="n">
+        <v>65.02018522415936</v>
+      </c>
+      <c r="H89" t="n">
+        <v>52.79142473837258</v>
+      </c>
+      <c r="I89" t="n">
+        <v>34.27029457648274</v>
+      </c>
+      <c r="J89" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>2.6344</v>
+      </c>
+      <c r="B90" t="n">
+        <v>55.8333862448798</v>
+      </c>
+      <c r="C90" t="n">
+        <v>59.22293473660447</v>
+      </c>
+      <c r="D90" t="n">
+        <v>58.80370681894325</v>
+      </c>
+      <c r="E90" t="n">
+        <v>62.10158337974676</v>
+      </c>
+      <c r="F90" t="n">
+        <v>53.59618049707765</v>
+      </c>
+      <c r="G90" t="n">
+        <v>68.2021151536337</v>
+      </c>
+      <c r="H90" t="n">
+        <v>55.36114849227792</v>
+      </c>
+      <c r="I90" t="n">
+        <v>33.54603463587486</v>
+      </c>
+      <c r="J90" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>2.6646</v>
+      </c>
+      <c r="B91" t="n">
+        <v>57.48013796238266</v>
+      </c>
+      <c r="C91" t="n">
+        <v>60.00748222470064</v>
+      </c>
+      <c r="D91" t="n">
+        <v>63.09729418041483</v>
+      </c>
+      <c r="E91" t="n">
+        <v>66.80489321499586</v>
+      </c>
+      <c r="F91" t="n">
+        <v>57.19661335341856</v>
+      </c>
+      <c r="G91" t="n">
+        <v>69.72083034574972</v>
+      </c>
+      <c r="H91" t="n">
+        <v>52.76320196012703</v>
+      </c>
+      <c r="I91" t="n">
+        <v>32.77065045727193</v>
+      </c>
+      <c r="J91" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>2.6949</v>
+      </c>
+      <c r="B92" t="n">
+        <v>58.42055031393253</v>
+      </c>
+      <c r="C92" t="n">
+        <v>57.07034082168379</v>
+      </c>
+      <c r="D92" t="n">
+        <v>61.31101812611472</v>
+      </c>
+      <c r="E92" t="n">
+        <v>68.29769736342556</v>
+      </c>
+      <c r="F92" t="n">
+        <v>57.32639950555269</v>
+      </c>
+      <c r="G92" t="n">
+        <v>69.21119592375096</v>
+      </c>
+      <c r="H92" t="n">
+        <v>57.01348152226806</v>
+      </c>
+      <c r="I92" t="n">
+        <v>38.71371893473188</v>
+      </c>
+      <c r="J92" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>2.7252</v>
+      </c>
+      <c r="B93" t="n">
+        <v>59.50140833570738</v>
+      </c>
+      <c r="C93" t="n">
+        <v>57.71407015720058</v>
+      </c>
+      <c r="D93" t="n">
+        <v>63.44326438852993</v>
+      </c>
+      <c r="E93" t="n">
+        <v>70.66584208941902</v>
+      </c>
+      <c r="F93" t="n">
+        <v>64.12521307418599</v>
+      </c>
+      <c r="G93" t="n">
+        <v>68.77912394653478</v>
+      </c>
+      <c r="H93" t="n">
+        <v>56.86816222303126</v>
+      </c>
+      <c r="I93" t="n">
+        <v>34.91418247105015</v>
+      </c>
+      <c r="J93" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>2.7555</v>
+      </c>
+      <c r="B94" t="n">
+        <v>58.68231260561403</v>
+      </c>
+      <c r="C94" t="n">
+        <v>58.37104071897942</v>
+      </c>
+      <c r="D94" t="n">
+        <v>64.74576270688569</v>
+      </c>
+      <c r="E94" t="n">
+        <v>70.74577667403284</v>
+      </c>
+      <c r="F94" t="n">
+        <v>60.95741373450703</v>
+      </c>
+      <c r="G94" t="n">
+        <v>68.63932897915362</v>
+      </c>
+      <c r="H94" t="n">
+        <v>54.84400656328595</v>
+      </c>
+      <c r="I94" t="n">
+        <v>32.47285886245367</v>
+      </c>
+      <c r="J94" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>2.7858</v>
+      </c>
+      <c r="B95" t="n">
+        <v>57.18259766188088</v>
+      </c>
+      <c r="C95" t="n">
+        <v>56.47339157564234</v>
+      </c>
+      <c r="D95" t="n">
+        <v>62.70178419213464</v>
+      </c>
+      <c r="E95" t="n">
+        <v>65.88481674894052</v>
+      </c>
+      <c r="F95" t="n">
+        <v>65.82593803018415</v>
+      </c>
+      <c r="G95" t="n">
+        <v>68.42991103130657</v>
+      </c>
+      <c r="H95" t="n">
+        <v>55.67099566611557</v>
+      </c>
+      <c r="I95" t="n">
+        <v>25.29134638884242</v>
+      </c>
+      <c r="J95" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>2.816</v>
+      </c>
+      <c r="B96" t="n">
+        <v>62.13574353731222</v>
+      </c>
+      <c r="C96" t="n">
+        <v>63.53550295357518</v>
+      </c>
+      <c r="D96" t="n">
+        <v>67.66304347326165</v>
+      </c>
+      <c r="E96" t="n">
+        <v>73.57533968269006</v>
+      </c>
+      <c r="F96" t="n">
+        <v>62.08891595115055</v>
+      </c>
+      <c r="G96" t="n">
+        <v>70.89825847345961</v>
+      </c>
+      <c r="H96" t="n">
+        <v>57.45213991684371</v>
+      </c>
+      <c r="I96" t="n">
+        <v>39.73700431020478</v>
+      </c>
+      <c r="J96" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>2.8463</v>
+      </c>
+      <c r="B97" t="n">
+        <v>62.16133472863953</v>
+      </c>
+      <c r="C97" t="n">
+        <v>65.25323909984309</v>
+      </c>
+      <c r="D97" t="n">
+        <v>68.37024417446858</v>
+      </c>
+      <c r="E97" t="n">
+        <v>74.62248321649088</v>
+      </c>
+      <c r="F97" t="n">
+        <v>66.76021203116902</v>
+      </c>
+      <c r="G97" t="n">
+        <v>72.6090098721381</v>
+      </c>
+      <c r="H97" t="n">
+        <v>54.34364994173448</v>
+      </c>
+      <c r="I97" t="n">
+        <v>33.17050476463253</v>
+      </c>
+      <c r="J97" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>2.8766</v>
+      </c>
+      <c r="B98" t="n">
+        <v>58.87100442508591</v>
+      </c>
+      <c r="C98" t="n">
+        <v>59.71599401592285</v>
+      </c>
+      <c r="D98" t="n">
+        <v>64.3159379357819</v>
+      </c>
+      <c r="E98" t="n">
+        <v>63.81909547240071</v>
+      </c>
+      <c r="F98" t="n">
+        <v>60.94581897401533</v>
+      </c>
+      <c r="G98" t="n">
+        <v>70.6214689215504</v>
+      </c>
+      <c r="H98" t="n">
+        <v>54.04186795001732</v>
+      </c>
+      <c r="I98" t="n">
+        <v>38.63684770591281</v>
+      </c>
+      <c r="J98" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>2.9069</v>
+      </c>
+      <c r="B99" t="n">
+        <v>61.22167596885898</v>
+      </c>
+      <c r="C99" t="n">
+        <v>64.11828344252822</v>
+      </c>
+      <c r="D99" t="n">
+        <v>67.52818256305572</v>
+      </c>
+      <c r="E99" t="n">
+        <v>70.52906859286605</v>
+      </c>
+      <c r="F99" t="n">
+        <v>62.95620437456174</v>
+      </c>
+      <c r="G99" t="n">
+        <v>70.43795619938022</v>
+      </c>
+      <c r="H99" t="n">
+        <v>56.31313130820642</v>
+      </c>
+      <c r="I99" t="n">
+        <v>36.66890530141448</v>
+      </c>
+      <c r="J99" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>2.9372</v>
+      </c>
+      <c r="B100" t="n">
+        <v>57.72638887214293</v>
+      </c>
+      <c r="C100" t="n">
+        <v>62.39511822535862</v>
+      </c>
+      <c r="D100" t="n">
+        <v>63.21741588419362</v>
+      </c>
+      <c r="E100" t="n">
+        <v>65.24881271439526</v>
+      </c>
+      <c r="F100" t="n">
+        <v>56.70816043759881</v>
+      </c>
+      <c r="G100" t="n">
+        <v>68.90286512427727</v>
+      </c>
+      <c r="H100" t="n">
+        <v>54.49163155620157</v>
+      </c>
+      <c r="I100" t="n">
+        <v>33.12071816297543</v>
+      </c>
+      <c r="J100" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>2.9674</v>
+      </c>
+      <c r="B101" t="n">
+        <v>62.24497805865025</v>
+      </c>
+      <c r="C101" t="n">
+        <v>64.7346631489297</v>
+      </c>
+      <c r="D101" t="n">
+        <v>66.17354195804248</v>
+      </c>
+      <c r="E101" t="n">
+        <v>73.98273735628646</v>
+      </c>
+      <c r="F101" t="n">
+        <v>62.25062343639478</v>
+      </c>
+      <c r="G101" t="n">
+        <v>74.1338395773417</v>
+      </c>
+      <c r="H101" t="n">
+        <v>58.94805761189642</v>
+      </c>
+      <c r="I101" t="n">
+        <v>35.49138332166012</v>
+      </c>
+      <c r="J101" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>2.9977</v>
+      </c>
+      <c r="B102" t="n">
+        <v>61.74945439246925</v>
+      </c>
+      <c r="C102" t="n">
+        <v>66.79506933244571</v>
+      </c>
+      <c r="D102" t="n">
+        <v>65.20270269772148</v>
+      </c>
+      <c r="E102" t="n">
+        <v>71.26865671142592</v>
+      </c>
+      <c r="F102" t="n">
+        <v>64.53442570793473</v>
+      </c>
+      <c r="G102" t="n">
+        <v>71.82866556336569</v>
+      </c>
+      <c r="H102" t="n">
+        <v>57.78730122448437</v>
+      </c>
+      <c r="I102" t="n">
+        <v>34.82935950990686</v>
+      </c>
+      <c r="J102" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B103" t="n">
+        <v>61.02716610458437</v>
+      </c>
+      <c r="C103" t="n">
+        <v>65.03703703203225</v>
+      </c>
+      <c r="D103" t="n">
+        <v>64.12256266910664</v>
+      </c>
+      <c r="E103" t="n">
+        <v>68.10610733615204</v>
+      </c>
+      <c r="F103" t="n">
+        <v>63.01793444150394</v>
+      </c>
+      <c r="G103" t="n">
+        <v>70.79482439425851</v>
+      </c>
+      <c r="H103" t="n">
+        <v>59.35129191378677</v>
+      </c>
+      <c r="I103" t="n">
+        <v>36.76040494525047</v>
+      </c>
+      <c r="J103" t="n">
+        <v>39.16015625</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
